--- a/data/亲和性试验配置.xlsx
+++ b/data/亲和性试验配置.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18160" activeTab="5"/>
+    <workbookView windowHeight="18160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="communication" sheetId="2" r:id="rId1"/>
-    <sheet name="nodes" sheetId="3" r:id="rId2"/>
-    <sheet name="pods" sheetId="4" r:id="rId3"/>
-    <sheet name="d-agents" sheetId="5" r:id="rId4"/>
-    <sheet name="d-node_resource" sheetId="6" r:id="rId5"/>
-    <sheet name="d-communication" sheetId="7" r:id="rId6"/>
+    <sheet name="pods" sheetId="4" r:id="rId2"/>
+    <sheet name="nodes" sheetId="3" r:id="rId3"/>
+    <sheet name="d-node_resource" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
   <si>
     <t>target</t>
   </si>
@@ -49,6 +47,12 @@
     <t>count</t>
   </si>
   <si>
+    <t>change_type</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
     <t>command_node-1</t>
   </si>
   <si>
@@ -94,27 +98,48 @@
     <t>aigc-4</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>aigc-5</t>
   </si>
   <si>
     <t>aigc-6</t>
   </si>
   <si>
+    <t>equipt-10</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>equipt-11</t>
+  </si>
+  <si>
+    <t>equipt-12</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>cpu</t>
   </si>
   <si>
+    <t>mem</t>
+  </si>
+  <si>
+    <t>gpu</t>
+  </si>
+  <si>
+    <t>disk</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
     <t>memory</t>
   </si>
   <si>
-    <t>gpu</t>
-  </si>
-  <si>
-    <t>disk</t>
-  </si>
-  <si>
     <t>net</t>
   </si>
   <si>
@@ -131,42 +156,6 @@
   </si>
   <si>
     <t>node-5</t>
-  </si>
-  <si>
-    <t>mem</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>change_type</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>equipt-10</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>equipt-11</t>
-  </si>
-  <si>
-    <t>equipt-12</t>
-  </si>
-  <si>
-    <t>platform-3</t>
-  </si>
-  <si>
-    <t>platform-10</t>
-  </si>
-  <si>
-    <t>platform-13</t>
   </si>
   <si>
     <t>cpu_used(cores)</t>
@@ -1346,15 +1335,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="30.0192307692308" customWidth="1"/>
+    <col min="2" max="2" width="26.0673076923077" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,13 +1364,19 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1390,10 +1390,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
@@ -1424,10 +1424,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1560,10 +1560,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1575,12 +1575,12 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1591,13 +1591,19 @@
       <c r="E14" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1608,13 +1614,19 @@
       <c r="E15" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
@@ -1624,6 +1636,81 @@
       </c>
       <c r="E16" s="1">
         <v>6000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>6000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>6000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>6000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1633,6 +1720,430 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="43.9038461538462" customWidth="1"/>
+    <col min="7" max="7" width="15.6923076923077" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2048</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2048</v>
+      </c>
+      <c r="G17" t="str">
+        <f>+G16</f>
+        <v>-</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2048</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2048</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2048</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2048</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -1645,27 +2156,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -1685,7 +2196,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -1705,7 +2216,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -1725,7 +2236,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>32</v>
@@ -1745,7 +2256,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -1761,430 +2272,6 @@
       </c>
       <c r="F6">
         <v>10000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="43.9038461538462" customWidth="1"/>
-    <col min="7" max="7" width="15.6923076923077" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>2048</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>2048</v>
-      </c>
-      <c r="G17" t="str">
-        <f>+G16</f>
-        <v>-</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>2048</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>2048</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>2048</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>2048</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2196,120 +2283,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="7"/>
-  <cols>
-    <col min="2" max="2" width="16.3365384615385" customWidth="1"/>
-    <col min="3" max="3" width="15.8557692307692" customWidth="1"/>
-    <col min="4" max="4" width="16.3461538461538" customWidth="1"/>
-    <col min="5" max="5" width="24.1923076923077" customWidth="1"/>
-    <col min="6" max="6" width="33.3269230769231" customWidth="1"/>
-    <col min="7" max="7" width="33.6442307692308" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1024</v>
-      </c>
-      <c r="E2">
-        <v>1024</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1024</v>
-      </c>
-      <c r="E3">
-        <v>1024</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2048</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -2325,30 +2301,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -2371,7 +2347,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -2394,7 +2370,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -2417,7 +2393,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -2440,7 +2416,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -2459,539 +2435,6 @@
       </c>
       <c r="G6">
         <v>8000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AX16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <cols>
-    <col min="46" max="46" width="35.5673076923077" customWidth="1"/>
-    <col min="47" max="47" width="49.5192307692308" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:50">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>6000</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV2">
-        <v>2</v>
-      </c>
-      <c r="AW2">
-        <v>6</v>
-      </c>
-      <c r="AX2">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>6000</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV3">
-        <v>5</v>
-      </c>
-      <c r="AW3">
-        <v>2</v>
-      </c>
-      <c r="AX3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>6000</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV4">
-        <v>6</v>
-      </c>
-      <c r="AW4">
-        <v>4</v>
-      </c>
-      <c r="AX4">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>6000</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV5">
-        <v>6</v>
-      </c>
-      <c r="AW5">
-        <v>1</v>
-      </c>
-      <c r="AX5">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>6000</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV6">
-        <v>6</v>
-      </c>
-      <c r="AW6">
-        <v>1</v>
-      </c>
-      <c r="AX6">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>6000</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV7">
-        <v>6</v>
-      </c>
-      <c r="AW7">
-        <v>2</v>
-      </c>
-      <c r="AX7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>6000</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV8">
-        <v>6</v>
-      </c>
-      <c r="AW8">
-        <v>1</v>
-      </c>
-      <c r="AX8">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>6000</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV9">
-        <v>8</v>
-      </c>
-      <c r="AW9">
-        <v>4</v>
-      </c>
-      <c r="AX9">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>6000</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV10">
-        <v>7</v>
-      </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
-      <c r="AX10">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>6000</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV11">
-        <v>2</v>
-      </c>
-      <c r="AW11">
-        <v>9</v>
-      </c>
-      <c r="AX11">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>6000</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AV12">
-        <v>1</v>
-      </c>
-      <c r="AW12">
-        <v>6</v>
-      </c>
-      <c r="AX12">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>6000</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV13">
-        <v>2</v>
-      </c>
-      <c r="AW13">
-        <v>8</v>
-      </c>
-      <c r="AX13">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>6000</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AV14">
-        <v>2</v>
-      </c>
-      <c r="AW14">
-        <v>9</v>
-      </c>
-      <c r="AX14">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>6000</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV15">
-        <v>1</v>
-      </c>
-      <c r="AW15">
-        <v>9</v>
-      </c>
-      <c r="AX15">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>6000</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV16">
-        <v>2</v>
-      </c>
-      <c r="AW16">
-        <v>9</v>
-      </c>
-      <c r="AX16">
-        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/data/亲和性试验配置.xlsx
+++ b/data/亲和性试验配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18160" activeTab="3"/>
+    <workbookView windowHeight="18160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="communication" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="95">
   <si>
     <t>target</t>
   </si>
@@ -59,31 +59,130 @@
     <t>command_center-1</t>
   </si>
   <si>
+    <t>equipt-1</t>
+  </si>
+  <si>
+    <t>equipt-2</t>
+  </si>
+  <si>
+    <t>equipt-3</t>
+  </si>
+  <si>
+    <t>equipt-4</t>
+  </si>
+  <si>
+    <t>equipt-5</t>
+  </si>
+  <si>
+    <t>equipt-6</t>
+  </si>
+  <si>
+    <t>equipt-7</t>
+  </si>
+  <si>
+    <t>equipt-8</t>
+  </si>
+  <si>
+    <t>equipt-9</t>
+  </si>
+  <si>
+    <t>equipt-10</t>
+  </si>
+  <si>
+    <t>equipt-11</t>
+  </si>
+  <si>
+    <t>equipt-12</t>
+  </si>
+  <si>
+    <t>equipt-13</t>
+  </si>
+  <si>
+    <t>equipt-14</t>
+  </si>
+  <si>
+    <t>equipt-15</t>
+  </si>
+  <si>
+    <t>equipt-16</t>
+  </si>
+  <si>
+    <t>equipt-17</t>
+  </si>
+  <si>
+    <t>equipt-18</t>
+  </si>
+  <si>
+    <t>equipt-19</t>
+  </si>
+  <si>
+    <t>equipt-20</t>
+  </si>
+  <si>
+    <t>equipt-21</t>
+  </si>
+  <si>
+    <t>equipt-22</t>
+  </si>
+  <si>
+    <t>equipt-23</t>
+  </si>
+  <si>
+    <t>equipt-24</t>
+  </si>
+  <si>
+    <t>equipt-25</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>equipt-26</t>
+  </si>
+  <si>
+    <t>equipt-27</t>
+  </si>
+  <si>
+    <t>equipt-28</t>
+  </si>
+  <si>
+    <t>equipt-29</t>
+  </si>
+  <si>
+    <t>equipt-30</t>
+  </si>
+  <si>
     <t>command_node-2</t>
   </si>
   <si>
-    <t>equipt-1</t>
-  </si>
-  <si>
-    <t>equipt-3</t>
-  </si>
-  <si>
-    <t>equipt-2</t>
-  </si>
-  <si>
-    <t>equipt-4</t>
-  </si>
-  <si>
-    <t>equipt-5</t>
-  </si>
-  <si>
-    <t>equipt-6</t>
-  </si>
-  <si>
-    <t>equipt-7</t>
-  </si>
-  <si>
-    <t>equipt-8</t>
+    <t>equipt-31</t>
+  </si>
+  <si>
+    <t>equipt-32</t>
+  </si>
+  <si>
+    <t>equipt-33</t>
+  </si>
+  <si>
+    <t>equipt-34</t>
+  </si>
+  <si>
+    <t>equipt-35</t>
+  </si>
+  <si>
+    <t>equipt-36</t>
+  </si>
+  <si>
+    <t>equipt-37</t>
+  </si>
+  <si>
+    <t>equipt-38</t>
+  </si>
+  <si>
+    <t>equipt-39</t>
+  </si>
+  <si>
+    <t>equipt-40</t>
   </si>
   <si>
     <t>aigc-1</t>
@@ -98,25 +197,22 @@
     <t>aigc-4</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>aigc-5</t>
   </si>
   <si>
     <t>aigc-6</t>
   </si>
   <si>
-    <t>equipt-10</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>equipt-11</t>
-  </si>
-  <si>
-    <t>equipt-12</t>
+    <t>aigc-7</t>
+  </si>
+  <si>
+    <t>aigc-8</t>
+  </si>
+  <si>
+    <t>aigc-9</t>
+  </si>
+  <si>
+    <t>aigc-10</t>
   </si>
   <si>
     <t>name</t>
@@ -158,6 +254,48 @@
     <t>node-5</t>
   </si>
   <si>
+    <t>node-6</t>
+  </si>
+  <si>
+    <t>node-7</t>
+  </si>
+  <si>
+    <t>node-8</t>
+  </si>
+  <si>
+    <t>node-9</t>
+  </si>
+  <si>
+    <t>node-10</t>
+  </si>
+  <si>
+    <t>node-11</t>
+  </si>
+  <si>
+    <t>node-12</t>
+  </si>
+  <si>
+    <t>node-13</t>
+  </si>
+  <si>
+    <t>node-14</t>
+  </si>
+  <si>
+    <t>node-15</t>
+  </si>
+  <si>
+    <t>node-16</t>
+  </si>
+  <si>
+    <t>node-17</t>
+  </si>
+  <si>
+    <t>node-18</t>
+  </si>
+  <si>
+    <t>node-19</t>
+  </si>
+  <si>
     <t>cpu_used(cores)</t>
   </si>
   <si>
@@ -174,6 +312,9 @@
   </si>
   <si>
     <t>network_free(Mb/s)</t>
+  </si>
+  <si>
+    <t>node-20</t>
   </si>
 </sst>
 </file>
@@ -796,8 +937,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1335,10 +1479,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1349,19 +1493,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1382,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>6000</v>
@@ -1399,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>6000</v>
@@ -1407,16 +1551,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>6000</v>
@@ -1424,16 +1568,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
         <v>6000</v>
@@ -1444,13 +1588,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>6000</v>
@@ -1458,16 +1602,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>6000</v>
@@ -1475,16 +1619,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
         <v>6000</v>
@@ -1492,16 +1636,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>6000</v>
@@ -1509,13 +1653,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1526,16 +1670,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>6000</v>
@@ -1543,16 +1687,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
         <v>6000</v>
@@ -1560,157 +1704,735 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E16" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1">
         <v>8</v>
       </c>
-      <c r="E13" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E42" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
         <v>9</v>
       </c>
-      <c r="E14" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14">
+      <c r="E45" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="D46" s="1">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D48" s="1">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
         <v>9</v>
       </c>
-      <c r="E15" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15">
+      <c r="E49" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="D50" s="1">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16">
+      <c r="D51" s="1">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
+      <c r="D52" s="1">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>6000</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>6000</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>6000</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
+      <c r="D53" s="1">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
@@ -1722,10 +2444,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1736,22 +2458,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1761,380 +2483,922 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>3072</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C10" s="1">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C17" s="1">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C27" s="1">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
+      <c r="C37" s="1">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="1">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C52" s="1">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
         <v>4</v>
       </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="1">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>2048</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
+      <c r="C54" s="1">
         <v>6</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>2048</v>
-      </c>
-      <c r="G17" t="str">
-        <f>+G16</f>
-        <v>-</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>2048</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>2048</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>2048</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>2048</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2048</v>
       </c>
     </row>
   </sheetData>
@@ -2146,37 +3410,37 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -2196,7 +3460,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -2216,7 +3480,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -2236,7 +3500,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>32</v>
@@ -2256,7 +3520,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -2271,6 +3535,286 @@
         <v>1572864</v>
       </c>
       <c r="F6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>240</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1572864</v>
+      </c>
+      <c r="F7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>240</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1572864</v>
+      </c>
+      <c r="F8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>240</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1572864</v>
+      </c>
+      <c r="F9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>240</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1572864</v>
+      </c>
+      <c r="F10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>240</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1572864</v>
+      </c>
+      <c r="F11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>240</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1572864</v>
+      </c>
+      <c r="F12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>240</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1572864</v>
+      </c>
+      <c r="F13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>240</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1572864</v>
+      </c>
+      <c r="F14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>240</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1572864</v>
+      </c>
+      <c r="F15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>240</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1572864</v>
+      </c>
+      <c r="F16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>240</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1572864</v>
+      </c>
+      <c r="F17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>240</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1572864</v>
+      </c>
+      <c r="F18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>240</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1572864</v>
+      </c>
+      <c r="F19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>240</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1572864</v>
+      </c>
+      <c r="F20">
         <v>10000</v>
       </c>
     </row>
@@ -2283,14 +3827,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
+    <col min="1" max="1" width="32.0480769230769" customWidth="1"/>
     <col min="2" max="2" width="21.1442307692308" customWidth="1"/>
     <col min="3" max="3" width="22.4326923076923" customWidth="1"/>
     <col min="4" max="4" width="21.4711538461538" customWidth="1"/>
@@ -2301,30 +3846,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -2347,7 +3892,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -2370,7 +3915,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -2393,7 +3938,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -2416,7 +3961,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -2434,6 +3979,351 @@
         <v>2000</v>
       </c>
       <c r="G6">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>236</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="G7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>236</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>236</v>
+      </c>
+      <c r="F9">
+        <v>2000</v>
+      </c>
+      <c r="G9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>236</v>
+      </c>
+      <c r="F10">
+        <v>2000</v>
+      </c>
+      <c r="G10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>236</v>
+      </c>
+      <c r="F11">
+        <v>2000</v>
+      </c>
+      <c r="G11">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>236</v>
+      </c>
+      <c r="F12">
+        <v>2000</v>
+      </c>
+      <c r="G12">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>236</v>
+      </c>
+      <c r="F13">
+        <v>2000</v>
+      </c>
+      <c r="G13">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>236</v>
+      </c>
+      <c r="F14">
+        <v>2000</v>
+      </c>
+      <c r="G14">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>236</v>
+      </c>
+      <c r="F15">
+        <v>2000</v>
+      </c>
+      <c r="G15">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>236</v>
+      </c>
+      <c r="F16">
+        <v>2000</v>
+      </c>
+      <c r="G16">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>236</v>
+      </c>
+      <c r="F17">
+        <v>2000</v>
+      </c>
+      <c r="G17">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>236</v>
+      </c>
+      <c r="F18">
+        <v>2000</v>
+      </c>
+      <c r="G18">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>236</v>
+      </c>
+      <c r="F19">
+        <v>2000</v>
+      </c>
+      <c r="G19">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>236</v>
+      </c>
+      <c r="F20">
+        <v>2000</v>
+      </c>
+      <c r="G20">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>236</v>
+      </c>
+      <c r="F21">
+        <v>2000</v>
+      </c>
+      <c r="G21">
         <v>8000</v>
       </c>
     </row>

--- a/data/亲和性试验配置.xlsx
+++ b/data/亲和性试验配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18160" activeTab="1"/>
+    <workbookView windowHeight="18160"/>
   </bookViews>
   <sheets>
     <sheet name="communication" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="95">
   <si>
     <t>target</t>
   </si>
@@ -134,70 +134,70 @@
     <t>equipt-25</t>
   </si>
   <si>
+    <t>equipt-26</t>
+  </si>
+  <si>
+    <t>equipt-27</t>
+  </si>
+  <si>
+    <t>equipt-28</t>
+  </si>
+  <si>
+    <t>equipt-29</t>
+  </si>
+  <si>
+    <t>equipt-30</t>
+  </si>
+  <si>
+    <t>command_node-2</t>
+  </si>
+  <si>
+    <t>equipt-31</t>
+  </si>
+  <si>
+    <t>equipt-32</t>
+  </si>
+  <si>
+    <t>equipt-33</t>
+  </si>
+  <si>
+    <t>equipt-34</t>
+  </si>
+  <si>
+    <t>equipt-35</t>
+  </si>
+  <si>
+    <t>equipt-36</t>
+  </si>
+  <si>
+    <t>equipt-37</t>
+  </si>
+  <si>
+    <t>equipt-38</t>
+  </si>
+  <si>
+    <t>equipt-39</t>
+  </si>
+  <si>
+    <t>equipt-40</t>
+  </si>
+  <si>
+    <t>aigc-1</t>
+  </si>
+  <si>
+    <t>aigc-2</t>
+  </si>
+  <si>
+    <t>aigc-3</t>
+  </si>
+  <si>
+    <t>aigc-4</t>
+  </si>
+  <si>
+    <t>aigc-5</t>
+  </si>
+  <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>equipt-26</t>
-  </si>
-  <si>
-    <t>equipt-27</t>
-  </si>
-  <si>
-    <t>equipt-28</t>
-  </si>
-  <si>
-    <t>equipt-29</t>
-  </si>
-  <si>
-    <t>equipt-30</t>
-  </si>
-  <si>
-    <t>command_node-2</t>
-  </si>
-  <si>
-    <t>equipt-31</t>
-  </si>
-  <si>
-    <t>equipt-32</t>
-  </si>
-  <si>
-    <t>equipt-33</t>
-  </si>
-  <si>
-    <t>equipt-34</t>
-  </si>
-  <si>
-    <t>equipt-35</t>
-  </si>
-  <si>
-    <t>equipt-36</t>
-  </si>
-  <si>
-    <t>equipt-37</t>
-  </si>
-  <si>
-    <t>equipt-38</t>
-  </si>
-  <si>
-    <t>equipt-39</t>
-  </si>
-  <si>
-    <t>equipt-40</t>
-  </si>
-  <si>
-    <t>aigc-1</t>
-  </si>
-  <si>
-    <t>aigc-2</t>
-  </si>
-  <si>
-    <t>aigc-3</t>
-  </si>
-  <si>
-    <t>aigc-4</t>
-  </si>
-  <si>
-    <t>aigc-5</t>
   </si>
   <si>
     <t>aigc-6</t>
@@ -1481,8 +1481,8 @@
   <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48:G50"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1940,7 +1940,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1956,16 +1956,10 @@
       <c r="E27" s="1">
         <v>6000</v>
       </c>
-      <c r="F27" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
@@ -1979,16 +1973,10 @@
       <c r="E28" s="1">
         <v>6000</v>
       </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -2002,16 +1990,10 @@
       <c r="E29" s="1">
         <v>6000</v>
       </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
@@ -2028,7 +2010,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
@@ -2045,7 +2027,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
@@ -2062,7 +2044,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
@@ -2079,10 +2061,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C34" s="1">
         <v>8</v>
@@ -2096,10 +2078,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1">
         <v>6</v>
@@ -2113,10 +2095,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1">
         <v>6</v>
@@ -2130,10 +2112,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1">
         <v>8</v>
@@ -2147,10 +2129,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1">
         <v>6</v>
@@ -2164,10 +2146,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1">
         <v>6</v>
@@ -2181,10 +2163,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1">
         <v>8</v>
@@ -2198,10 +2180,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1">
         <v>8</v>
@@ -2215,10 +2197,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <v>8</v>
@@ -2232,10 +2214,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <v>8</v>
@@ -2252,7 +2234,7 @@
         <v>29</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -2269,7 +2251,7 @@
         <v>30</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
@@ -2286,7 +2268,7 @@
         <v>31</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -2303,7 +2285,7 @@
         <v>32</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
@@ -2320,7 +2302,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -2332,7 +2314,7 @@
         <v>6000</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -2340,7 +2322,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>56</v>
@@ -2355,7 +2337,7 @@
         <v>6000</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -2363,7 +2345,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>57</v>
@@ -2378,7 +2360,7 @@
         <v>6000</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -2386,7 +2368,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>58</v>
@@ -2403,7 +2385,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>59</v>
@@ -2420,7 +2402,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>60</v>
@@ -2446,8 +2428,8 @@
   <sheetPr/>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:H31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2518,7 +2500,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2958,7 +2940,7 @@
         <v>2048</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -2966,7 +2948,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -2981,7 +2963,7 @@
         <v>2048</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -2989,7 +2971,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>4</v>
@@ -3004,7 +2986,7 @@
         <v>2048</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3012,7 +2994,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1">
         <v>4</v>
@@ -3029,7 +3011,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -3046,7 +3028,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
         <v>3</v>
@@ -3063,7 +3045,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
@@ -3080,7 +3062,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>3</v>
@@ -3097,7 +3079,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>4</v>
@@ -3114,7 +3096,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>4</v>
@@ -3131,7 +3113,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -3148,7 +3130,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -3165,7 +3147,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -3182,7 +3164,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
@@ -3199,7 +3181,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1">
         <v>4</v>
@@ -3216,7 +3198,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1">
         <v>4</v>
@@ -3233,7 +3215,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1">
         <v>4</v>
@@ -3250,7 +3232,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1">
         <v>4</v>
@@ -3267,7 +3249,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1">
         <v>4</v>
@@ -3284,7 +3266,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
@@ -3301,7 +3283,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1">
         <v>4</v>
